--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF345D0-0F2C-49BF-9B74-014DD72D6C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="RunnerManager" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>testname</t>
   </si>
@@ -35,52 +36,31 @@
     <t>loginLogoutTest</t>
   </si>
   <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check whether the user can successfully login and logout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check whether this test is executed </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>newloginLogoutTest</t>
+  </si>
+  <si>
+    <t>To Check whether the user can logins successfully or not</t>
+  </si>
+  <si>
+    <t>TO check whether this test is executed or not</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>amuthan</t>
-  </si>
-  <si>
-    <t>testing mini bytes</t>
-  </si>
-  <si>
-    <t>subscribe</t>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
   </si>
   <si>
     <t>browser</t>
@@ -90,40 +70,13 @@
   </si>
   <si>
     <t>firefox</t>
-  </si>
-  <si>
-    <t>amazonTest</t>
-  </si>
-  <si>
-    <t>To check whether the amazon test is working or not</t>
-  </si>
-  <si>
-    <t>menutext</t>
-  </si>
-  <si>
-    <t>Laptops</t>
-  </si>
-  <si>
-    <t>YWRtaW4xMjM=</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>79.0.3945.117</t>
-  </si>
-  <si>
-    <t>88.0.4324.96</t>
-  </si>
-  <si>
-    <t>69.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,28 +84,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,9 +128,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,347 +434,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825E2F75-B642-4057-B7A0-DBA19FEB48DE}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48BC7D1-49C6-422F-B041-C481672E92CD}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
